--- a/Writting/burndown chart.xlsx
+++ b/Writting/burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Minesweepr-main\Minesweepr-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pypb4\Documents\GitHub\Minesweepr\Writting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F942F4-CFA5-4E52-A3FF-CD047D7CA4AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7557A1-BF61-48C8-90FC-DFB82E1818E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,28 +255,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.25</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.75</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.75</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -356,9 +356,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1133,16 +1133,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>79057</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1470,17 +1470,17 @@
   <dimension ref="C2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
     <col min="4" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="1">
         <v>45425</v>
@@ -1533,7 +1533,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -1559,53 +1559,46 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <f>SUM(D6-9.75)</f>
-        <v>68.25</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:K6" si="0">SUM(E6-9.75)</f>
-        <v>58.5</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>48.75</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>29.25</v>
+        <v>36</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>57</v>
-      </c>
-      <c r="K7">
+        <v>75</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
     </row>

--- a/Writting/burndown chart.xlsx
+++ b/Writting/burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pypb4\Documents\GitHub\Minesweepr\Writting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Minesweepr-main\Minesweepr-main\Writting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7557A1-BF61-48C8-90FC-DFB82E1818E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF238D0-03F4-4F1D-81CA-DD65AC5750EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,28 +255,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -356,7 +356,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1469,18 +1475,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9515E7-3C81-4D96-A631-BFF7C3EF927B}">
   <dimension ref="C2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
     <col min="4" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="1">
         <v>45425</v>
@@ -1533,7 +1539,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -1559,44 +1565,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E6">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>104</v>
+      </c>
+      <c r="E7">
+        <v>83</v>
+      </c>
+      <c r="F7">
+        <v>67</v>
       </c>
       <c r="L7">
         <v>0</v>

--- a/Writting/burndown chart.xlsx
+++ b/Writting/burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Minesweepr-main\Minesweepr-main\Writting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF238D0-03F4-4F1D-81CA-DD65AC5750EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDAC47-8652-45D1-A7A2-A33916D1E351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7980" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,6 +363,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1475,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9515E7-3C81-4D96-A631-BFF7C3EF927B}">
   <dimension ref="C2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,6 +1616,12 @@
       <c r="F7">
         <v>67</v>
       </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <v>0</v>
       </c>

--- a/Writting/burndown chart.xlsx
+++ b/Writting/burndown chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Minesweepr-main\Minesweepr-main\Writting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Minesweepr-main (1)\Minesweepr-main\Writting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDAC47-8652-45D1-A7A2-A33916D1E351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE1E61-C263-4706-B368-876E2555187C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7980" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
   </bookViews>
@@ -365,10 +365,10 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9515E7-3C81-4D96-A631-BFF7C3EF927B}">
   <dimension ref="C2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,10 +1617,10 @@
         <v>67</v>
       </c>
       <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
         <v>11</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>

--- a/Writting/burndown chart.xlsx
+++ b/Writting/burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Minesweepr-main (1)\Minesweepr-main\Writting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE1E61-C263-4706-B368-876E2555187C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5560730-8BCC-4FE2-A01B-2737118463D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7980" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -369,6 +369,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1145,16 +1151,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>10477</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>79057</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1481,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9515E7-3C81-4D96-A631-BFF7C3EF927B}">
   <dimension ref="C2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1603,7 @@
         <v>26</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1621,6 +1627,12 @@
       </c>
       <c r="H7">
         <v>11</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
       </c>
       <c r="L7">
         <v>0</v>

--- a/Writting/burndown chart.xlsx
+++ b/Writting/burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Minesweepr-main (1)\Minesweepr-main\Writting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pypb4\Documents\Programing\Minesweepr-main\Minesweepr-main\Writting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5560730-8BCC-4FE2-A01B-2737118463D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D752661-8ECE-47F9-A4D7-6DCBF4946F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A87DBA8-D7EE-478A-B324-00FDA4A0E620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1151,16 +1151,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>96202</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>164782</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>58102</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1488,17 +1488,17 @@
   <dimension ref="C2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
     <col min="4" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="1">
         <v>45425</v>
@@ -1551,7 +1551,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
